--- a/Crawling/music/crawled_data/outlier_data/2022-05-16_2022-05-22/genie/[genie]20220516_20220522_mean_outliers.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-16_2022-05-22/genie/[genie]20220516_20220522_mean_outliers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>날짜</t>
   </si>
@@ -46,34 +46,22 @@
     <t>순위변동평균(양수)</t>
   </si>
   <si>
-    <t>2022-05-22</t>
-  </si>
-  <si>
-    <t>2022-05-18</t>
+    <t>2022-05-20</t>
   </si>
   <si>
     <t>Genie</t>
   </si>
   <si>
-    <t>YOU AND I</t>
-  </si>
-  <si>
-    <t>밤하늘의 별을 (2020)</t>
-  </si>
-  <si>
-    <t>WSG워너비 조별경연 (대청봉)</t>
-  </si>
-  <si>
-    <t>경서</t>
-  </si>
-  <si>
-    <t>WSG워너비 조별경연 Part 2.</t>
-  </si>
-  <si>
-    <t>MBC</t>
-  </si>
-  <si>
-    <t>꿈의엔진</t>
+    <t>늦은 밤 헤어지긴 너무 아쉬워</t>
+  </si>
+  <si>
+    <t>케이시 (Kassy)</t>
+  </si>
+  <si>
+    <t>LOVE &amp; HATE</t>
+  </si>
+  <si>
+    <t>NEXTAR</t>
   </si>
   <si>
     <t>기타</t>
@@ -434,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,63 +465,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>39</v>
-      </c>
-      <c r="J3">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
